--- a/biology/Botanique/Nuz/Nuz.xlsx
+++ b/biology/Botanique/Nuz/Nuz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Nuz est le pays qui semble désigner la partie d'un territoire dont Mayenne était le chef-lieu. Il s'agit du nom d'une forêt qui devait couvrir une vaste région, et dont les forêts de la Ferté, de la Motte, de la Monnaye et de Pré-en-Pail seraient les restes. Le mot Neuilly (autrefois Nuilli, Nuillé) semble tirer son origine de Nuz[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nuz est le pays qui semble désigner la partie d'un territoire dont Mayenne était le chef-lieu. Il s'agit du nom d'une forêt qui devait couvrir une vaste région, et dont les forêts de la Ferté, de la Motte, de la Monnaye et de Pré-en-Pail seraient les restes. Le mot Neuilly (autrefois Nuilli, Nuillé) semble tirer son origine de Nuz.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Mentions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Constantien de Javron et Fraimbault de Lassay s'établirent dans le Passais en forêt de Nuz  et y meurent au VIe siècle.
 Pierre-Jean Le Corvaisier et Bondonnet sont les seuls qui parlent de la forest de Nuz. Aucun texte avant le XVIe siècle ne mentionne le pays de Nuz par ce nom qui fut alors fort en vogue. 
